--- a/RULEOFLAW.xlsx
+++ b/RULEOFLAW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanzavala/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469DAAEA-A6C7-864E-894B-881757964B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE4D19-F862-FB4B-8610-36EEA7631ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A20EA801-F4AB-A449-81DE-2423B1F8D2FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -424,13 +424,400 @@
   </si>
   <si>
     <t>RULEOFLAW</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>XKX</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +834,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -488,12 +881,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,1046 +1209,1435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CE2E2B-36C4-7542-B933-4F89E8EF71B6}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.36273574773549361</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.50022876829848295</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.49440423564872177</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.42541924686204208</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.63087400600920729</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.57958430836167596</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.80285663447904421</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.81717947813842795</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.60514822968283299</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.40831844460061628</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.64627136266972196</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.51419142342804824</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.78741061624632003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.47816481977411357</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.49693438541162493</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.38333880874477438</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.52023074255414803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.60042873248392936</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.51509014989989865</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.54699061749842204</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.50855326576087057</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2">
         <v>0.32555171349977247</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="2">
         <v>0.35938210361450962</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.8073865050226301</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.66963596780262846</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2">
         <v>0.47872685247099145</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="2">
         <v>0.50030806609042189</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2">
         <v>0.3421232951774103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.68241458883550232</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="2">
         <v>0.46267028072943067</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="2">
         <v>0.61428832274982281</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="2">
         <v>0.73134395460106016</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2">
         <v>0.89946605164451798</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.58286858264848462</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="2">
         <v>0.47799291638573582</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="2">
         <v>0.48512085943354188</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="2">
         <v>0.35810525343505833</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="2">
         <v>0.49359211107267797</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="2">
         <v>0.80712825746343231</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="2">
         <v>0.41128521183795846</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="2">
         <v>0.87427798188280503</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="2">
         <v>0.72722301185649063</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.50340184613699646</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="2">
         <v>0.60215140225993169</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="2">
         <v>0.83631084891401075</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="2">
         <v>0.56590182501102082</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="2">
         <v>0.61018512043784723</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="2">
         <v>0.59136519230032025</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="2">
         <v>0.44879728691312537</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="2">
         <v>0.41909433842205474</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="2">
         <v>0.50340582175725734</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="2">
         <v>0.40222967328577103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="2">
         <v>0.76344430767932314</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="2">
         <v>0.52788249543804033</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="2">
         <v>0.50877963119061242</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="2">
         <v>0.52811966646946484</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="2">
         <v>0.42704802761161081</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="2">
         <v>0.65771746878300796</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="2">
         <v>0.56904094397472016</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="2">
         <v>0.77957837835475619</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="2">
         <v>0.5674327327701757</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="2">
         <v>0.52308459842649624</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="2">
         <v>0.44835287214654107</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="2">
         <v>0.54309221908934791</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="2">
         <v>0.48422433215894717</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="2">
         <v>0.45468340733920792</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="2">
         <v>0.45312820056608832</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="2">
         <v>0.44017431081809466</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="2">
         <v>0.51849020210260721</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="2">
         <v>0.58261819301008944</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="2">
         <v>0.43903495028193235</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="2">
         <v>0.36167195835966431</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="2">
         <v>0.61457231997916684</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="2">
         <v>0.44113031997683955</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="2">
         <v>0.49584833980159038</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="2">
         <v>0.53348245614694045</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="2">
         <v>0.50000644442509556</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="2">
         <v>0.41319706835713915</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="2">
         <v>0.41851296082757444</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="2">
         <v>0.62558971507627115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="2">
         <v>0.52565745220800431</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="2">
         <v>0.83748271535294005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="2">
         <v>0.82503393145477033</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="2">
         <v>0.39363566233471264</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="2">
         <v>0.44784790872239438</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="2">
         <v>0.42836286686675079</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="2">
         <v>0.53279883172925291</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="2">
         <v>0.89440682675798966</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="2">
         <v>0.3882549853217831</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="2">
         <v>0.52173514756682071</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="2">
         <v>0.49905174365108163</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="2">
         <v>0.474664557334528</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="2">
         <v>0.65692397017883053</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="2">
         <v>0.7043532812129274</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" s="2">
         <v>0.73239028596295697</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" s="2">
         <v>0.63256520965372642</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="2">
         <v>0.46529470284492419</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="2">
         <v>0.61715712642489728</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" s="2">
         <v>0.55119035828701868</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="2">
         <v>0.50284415221940204</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="2">
         <v>0.45025324636320851</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="2">
         <v>0.78888432663206831</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="2">
         <v>0.68510870448565508</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="2">
         <v>0.58627109479299899</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="2">
         <v>0.72836734904395062</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="2">
         <v>0.51832793415855105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="2">
         <v>0.63227384211647442</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" s="2">
         <v>0.61912568002018442</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="2">
         <v>0.63708415436516508</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="2">
         <v>0.50077777447140948</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" s="2">
         <v>0.86174049424979993</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="2">
         <v>0.47006565196466099</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" s="2">
         <v>0.50719990847872709</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="2">
         <v>0.45027999160169851</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="2">
         <v>0.53679031172547398</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" s="2">
         <v>0.53654436498097691</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="2">
         <v>0.42925683003286491</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="2">
         <v>0.39719336860410298</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="2">
         <v>0.50645822002842855</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="2">
         <v>0.6455845323466618</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="2">
         <v>0.7887926116118521</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="2">
         <v>0.71577231026884414</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" s="2">
         <v>0.70994311529669363</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="2">
         <v>0.47170732255793923</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="2">
         <v>0.2691009506063608</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="2">
         <v>0.491657901647159</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" s="2">
         <v>0.45406879798803357</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="2">
         <v>0.39311874183528556</v>
       </c>
     </row>
